--- a/管理/领航教育报名册.xlsx
+++ b/管理/领航教育报名册.xlsx
@@ -68,267 +68,267 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>朱杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周裕寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭秘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覃玮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭丽莎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张红春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚玉兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘学芹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周潘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈佳音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄雅玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牟婧婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘子妍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷艳芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓苏霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚薇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈红艳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙淑慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申品才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周恒召</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冉影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧江洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙育红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李胡玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴轶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何攀攀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李毅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈姣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁地兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张颖绮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑茜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴妞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张玉平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余艳琼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱婷婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗燕玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向飞艳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田江丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周桧楠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张凤娥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐思英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒春艳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈瑛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜攀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连横</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覃亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张杪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻红娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牟黎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴芬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪腊娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>肖伟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倪萍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨露</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周裕寒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭秘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>覃玮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭丽莎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张红春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚玉兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘学芹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周潘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈佳音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄雅玲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马琴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牟婧婷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘子妍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷艳芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柯兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卓苏霞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚薇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈红艳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙淑慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申品才</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周恒召</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冉影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>田余</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧江洁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙育红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李胡玲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴轶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘琳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何攀攀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李毅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈姣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁地兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张颖绮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑茜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴妞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张玉平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余艳琼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱婷婷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗燕玲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向飞艳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>田江丽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周鑫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周桧楠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张凤娥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐思英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舒春艳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈瑛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐微</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜攀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连横</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>覃亿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张杪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喻红娇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牟黎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴芬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洪腊娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交齐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生联系方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -797,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -853,8 +853,12 @@
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="4">
+        <v>15926133161</v>
+      </c>
+      <c r="C3" s="4">
+        <v>13858487382</v>
+      </c>
       <c r="D3" s="4">
         <v>200</v>
       </c>
@@ -868,15 +872,19 @@
         <v>622</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="4">
+        <v>15071867245</v>
+      </c>
+      <c r="C4" s="4">
+        <v>13437404462</v>
+      </c>
       <c r="D4" s="4">
         <v>200</v>
       </c>
@@ -893,8 +901,12 @@
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="4">
+        <v>15549170119</v>
+      </c>
+      <c r="C5" s="4">
+        <v>15571889737</v>
+      </c>
       <c r="D5" s="4">
         <v>200</v>
       </c>
@@ -906,15 +918,19 @@
         <v>622</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="4">
+        <v>15502776679</v>
+      </c>
+      <c r="C6" s="4">
+        <v>15980331007</v>
+      </c>
       <c r="D6" s="4">
         <v>200</v>
       </c>
@@ -929,8 +945,12 @@
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="4">
+        <v>15717267867</v>
+      </c>
+      <c r="C7" s="4">
+        <v>18858907162</v>
+      </c>
       <c r="D7" s="4">
         <v>200</v>
       </c>
@@ -942,15 +962,19 @@
         <v>622</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="B8" s="4">
+        <v>15027203767</v>
+      </c>
+      <c r="C8" s="4">
+        <v>13477907358</v>
+      </c>
       <c r="D8" s="4">
         <v>200</v>
       </c>
@@ -962,15 +986,19 @@
         <v>622</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="B9" s="4">
+        <v>13277503669</v>
+      </c>
+      <c r="C9" s="4">
+        <v>18671142774</v>
+      </c>
       <c r="D9" s="4">
         <v>200</v>
       </c>
@@ -983,10 +1011,14 @@
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B10" s="4">
+        <v>18271717850</v>
+      </c>
+      <c r="C10" s="4">
+        <v>15171039731</v>
+      </c>
       <c r="D10" s="4">
         <v>200</v>
       </c>
@@ -998,15 +1030,19 @@
         <v>622</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="B11" s="4">
+        <v>15727260739</v>
+      </c>
+      <c r="C11" s="4">
+        <v>18767690126</v>
+      </c>
       <c r="D11" s="4">
         <v>200</v>
       </c>
@@ -1018,15 +1054,19 @@
         <v>622</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
+        <v>13402742943</v>
+      </c>
+      <c r="C12" s="4">
+        <v>18221069284</v>
+      </c>
       <c r="D12" s="4">
         <v>200</v>
       </c>
@@ -1038,14 +1078,16 @@
         <v>622</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B13" s="4">
+        <v>15171022595</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
         <v>200</v>
@@ -1059,10 +1101,14 @@
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B14" s="4">
+        <v>15986687784</v>
+      </c>
+      <c r="C14" s="4">
+        <v>15971822628</v>
+      </c>
       <c r="D14" s="4">
         <v>200</v>
       </c>
@@ -1074,15 +1120,19 @@
         <v>622</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B15" s="4">
+        <v>13597803643</v>
+      </c>
+      <c r="C15" s="4">
+        <v>18372547080</v>
+      </c>
       <c r="D15" s="4">
         <v>200</v>
       </c>
@@ -1094,15 +1144,19 @@
         <v>622</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B16" s="4">
+        <v>13257181166</v>
+      </c>
+      <c r="C16" s="4">
+        <v>15971722777</v>
+      </c>
       <c r="D16" s="4">
         <v>200</v>
       </c>
@@ -1114,15 +1168,19 @@
         <v>622</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B17" s="4">
+        <v>13617184832</v>
+      </c>
+      <c r="C17" s="4">
+        <v>15272268734</v>
+      </c>
       <c r="D17" s="4">
         <v>200</v>
       </c>
@@ -1134,15 +1192,19 @@
         <v>622</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="B18" s="4">
+        <v>18872785963</v>
+      </c>
+      <c r="C18" s="4">
+        <v>15172868220</v>
+      </c>
       <c r="D18" s="4">
         <v>200</v>
       </c>
@@ -1155,10 +1217,14 @@
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="B19" s="4">
+        <v>15926107649</v>
+      </c>
+      <c r="C19" s="4">
+        <v>13469733045</v>
+      </c>
       <c r="D19" s="4">
         <v>200</v>
       </c>
@@ -1170,15 +1236,19 @@
         <v>622</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="B20" s="4">
+        <v>18327436126</v>
+      </c>
+      <c r="C20" s="4">
+        <v>15027221438</v>
+      </c>
       <c r="D20" s="4">
         <v>200</v>
       </c>
@@ -1191,10 +1261,14 @@
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B21" s="4">
+        <v>18807264504</v>
+      </c>
+      <c r="C21" s="4">
+        <v>13818494492</v>
+      </c>
       <c r="D21" s="4">
         <v>200</v>
       </c>
@@ -1206,15 +1280,19 @@
         <v>622</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="B22" s="4">
+        <v>13818494492</v>
+      </c>
+      <c r="C22" s="4">
+        <v>13764500867</v>
+      </c>
       <c r="D22" s="4">
         <v>200</v>
       </c>
@@ -1226,15 +1304,19 @@
         <v>622</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="B23" s="4">
+        <v>18672074253</v>
+      </c>
+      <c r="C23" s="4">
+        <v>13989700437</v>
+      </c>
       <c r="D23" s="4">
         <v>200</v>
       </c>
@@ -1246,15 +1328,19 @@
         <v>622</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="B24" s="4">
+        <v>13451016863</v>
+      </c>
+      <c r="C24" s="4">
+        <v>13862171406</v>
+      </c>
       <c r="D24" s="4">
         <v>200</v>
       </c>
@@ -1266,14 +1352,16 @@
         <v>622</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="B25" s="4">
+        <v>18371824350</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4">
         <v>200</v>
@@ -1286,14 +1374,16 @@
         <v>622</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="B26" s="4">
+        <v>17707187306</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4">
         <v>200</v>
@@ -1307,9 +1397,11 @@
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="B27" s="4">
+        <v>15172920695</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4">
         <v>200</v>
@@ -1325,9 +1417,11 @@
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="B28" s="4">
+        <v>13227499322</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4">
         <v>200</v>
@@ -1341,9 +1435,11 @@
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="B29" s="4">
+        <v>15172969611</v>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4">
         <v>200</v>
@@ -1356,15 +1452,19 @@
         <v>622</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="B30" s="4">
+        <v>13135855397</v>
+      </c>
+      <c r="C30" s="4">
+        <v>15587428782</v>
+      </c>
       <c r="D30" s="4">
         <v>200</v>
       </c>
@@ -1376,15 +1476,19 @@
         <v>622</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="B31" s="4">
+        <v>18372500757</v>
+      </c>
+      <c r="C31" s="4">
+        <v>13566441407</v>
+      </c>
       <c r="D31" s="4">
         <v>200</v>
       </c>
@@ -1396,15 +1500,19 @@
         <v>622</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="B32" s="4">
+        <v>15587540508</v>
+      </c>
+      <c r="C32" s="4">
+        <v>15572430025</v>
+      </c>
       <c r="D32" s="4">
         <v>200</v>
       </c>
@@ -1417,10 +1525,14 @@
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="B33" s="4">
+        <v>13997769653</v>
+      </c>
+      <c r="C33" s="4">
+        <v>15190219085</v>
+      </c>
       <c r="D33" s="4">
         <v>200</v>
       </c>
@@ -1432,15 +1544,19 @@
         <v>622</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="18" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B34" s="4">
+        <v>13277537161</v>
+      </c>
+      <c r="C34" s="4">
+        <v>15707254763</v>
+      </c>
       <c r="D34" s="4">
         <v>200</v>
       </c>
@@ -1452,7 +1568,7 @@
         <v>622</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T34">
         <v>200</v>
@@ -1460,10 +1576,14 @@
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="B35" s="4">
+        <v>15027228883</v>
+      </c>
+      <c r="C35" s="4">
+        <v>15587463558</v>
+      </c>
       <c r="D35" s="4">
         <v>200</v>
       </c>
@@ -1475,14 +1595,16 @@
         <v>622</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="18" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="B36" s="4">
+        <v>15771080161</v>
+      </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4">
         <v>200</v>
@@ -1496,10 +1618,14 @@
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="B37" s="4">
+        <v>13044851235</v>
+      </c>
+      <c r="C37" s="4">
+        <v>15502777109</v>
+      </c>
       <c r="D37" s="4">
         <v>200</v>
       </c>
@@ -1511,15 +1637,19 @@
         <v>622</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="B38" s="4">
+        <v>15586677845</v>
+      </c>
+      <c r="C38" s="4">
+        <v>17185865311</v>
+      </c>
       <c r="D38" s="4">
         <v>200</v>
       </c>
@@ -1531,15 +1661,19 @@
         <v>622</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B39" s="4">
+        <v>13635774617</v>
+      </c>
+      <c r="C39" s="4">
+        <v>15172881337</v>
+      </c>
       <c r="D39" s="4">
         <v>200</v>
       </c>
@@ -1552,10 +1686,14 @@
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="B40" s="4">
+        <v>13635764058</v>
+      </c>
+      <c r="C40" s="4">
+        <v>15171970630</v>
+      </c>
       <c r="D40" s="4">
         <v>200</v>
       </c>
@@ -1567,15 +1705,19 @@
         <v>622</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="B41" s="4">
+        <v>18327446268</v>
+      </c>
+      <c r="C41" s="4">
+        <v>13517183956</v>
+      </c>
       <c r="D41" s="4">
         <v>200</v>
       </c>
@@ -1587,15 +1729,19 @@
         <v>622</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="B42" s="4">
+        <v>18257505279</v>
+      </c>
+      <c r="C42" s="4">
+        <v>18258512796</v>
+      </c>
       <c r="D42" s="4">
         <v>200</v>
       </c>
@@ -1608,10 +1754,14 @@
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="B43" s="4">
+        <v>15629230046</v>
+      </c>
+      <c r="C43" s="4">
+        <v>13277598062</v>
+      </c>
       <c r="D43" s="4">
         <v>200</v>
       </c>
@@ -1624,9 +1774,11 @@
     </row>
     <row r="44" spans="1:20" ht="18" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="B44" s="4">
+        <v>15572404025</v>
+      </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4">
         <v>200</v>
@@ -1640,7 +1792,7 @@
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1656,10 +1808,14 @@
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="B46" s="4">
+        <v>15707274541</v>
+      </c>
+      <c r="C46" s="4">
+        <v>13282725902</v>
+      </c>
       <c r="D46" s="4">
         <v>300</v>
       </c>
@@ -1672,9 +1828,11 @@
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="B47" s="4">
+        <v>13451018386</v>
+      </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <v>200</v>
@@ -1688,10 +1846,14 @@
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="B48" s="4">
+        <v>13477899451</v>
+      </c>
+      <c r="C48" s="4">
+        <v>18658667509</v>
+      </c>
       <c r="D48" s="4">
         <v>200</v>
       </c>
@@ -1704,10 +1866,14 @@
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B49" s="4">
+        <v>15172993970</v>
+      </c>
+      <c r="C49" s="4">
+        <v>13277551334</v>
+      </c>
       <c r="D49" s="4">
         <v>200</v>
       </c>
@@ -1720,10 +1886,14 @@
     </row>
     <row r="50" spans="1:8" ht="18" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="B50" s="4">
+        <v>15571887037</v>
+      </c>
+      <c r="C50" s="4">
+        <v>13597768864</v>
+      </c>
       <c r="D50" s="4">
         <v>200</v>
       </c>
@@ -1736,10 +1906,14 @@
     </row>
     <row r="51" spans="1:8" ht="18" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B51" s="4">
+        <v>15172831572</v>
+      </c>
+      <c r="C51" s="4">
+        <v>15172821572</v>
+      </c>
       <c r="D51" s="4">
         <v>200</v>
       </c>
@@ -1752,10 +1926,14 @@
     </row>
     <row r="52" spans="1:8" ht="18" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="B52" s="4">
+        <v>15272940102</v>
+      </c>
+      <c r="C52" s="4">
+        <v>18695005761</v>
+      </c>
       <c r="D52" s="4">
         <v>200</v>
       </c>
@@ -1768,10 +1946,14 @@
     </row>
     <row r="53" spans="1:8" ht="18" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="B53" s="4">
+        <v>13227461569</v>
+      </c>
+      <c r="C53" s="4">
+        <v>13517152609</v>
+      </c>
       <c r="D53" s="4">
         <v>200</v>
       </c>
@@ -1784,7 +1966,7 @@
     </row>
     <row r="54" spans="1:8" ht="18" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1797,15 +1979,19 @@
         <v>622</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="B55" s="4">
+        <v>13886787431</v>
+      </c>
+      <c r="C55" s="4">
+        <v>15997781950</v>
+      </c>
       <c r="D55" s="4">
         <v>200</v>
       </c>
@@ -1818,10 +2004,14 @@
     </row>
     <row r="56" spans="1:8" ht="18" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="B56" s="4">
+        <v>15771084674</v>
+      </c>
+      <c r="C56" s="4">
+        <v>13217186360</v>
+      </c>
       <c r="D56" s="4">
         <v>200</v>
       </c>
@@ -1834,10 +2024,14 @@
     </row>
     <row r="57" spans="1:8" ht="18" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="B57" s="4">
+        <v>15570546754</v>
+      </c>
+      <c r="C57" s="4">
+        <v>15587690741</v>
+      </c>
       <c r="D57" s="4">
         <v>300</v>
       </c>
@@ -1850,10 +2044,14 @@
     </row>
     <row r="58" spans="1:8" ht="18" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="B58" s="4">
+        <v>15971713749</v>
+      </c>
+      <c r="C58" s="4">
+        <v>13402744755</v>
+      </c>
       <c r="D58" s="4">
         <v>200</v>
       </c>
@@ -1866,10 +2064,14 @@
     </row>
     <row r="59" spans="1:8" ht="18" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="B59" s="4">
+        <v>15171021508</v>
+      </c>
+      <c r="C59" s="4">
+        <v>13597751046</v>
+      </c>
       <c r="D59" s="4">
         <v>200</v>
       </c>
@@ -1882,9 +2084,11 @@
     </row>
     <row r="60" spans="1:8" ht="18" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="B60" s="4">
+        <v>18372524465</v>
+      </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4">
         <v>200</v>
@@ -1898,10 +2102,14 @@
     </row>
     <row r="61" spans="1:8" ht="18" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="B61" s="4">
+        <v>13402784123</v>
+      </c>
+      <c r="C61" s="4">
+        <v>13886764559</v>
+      </c>
       <c r="D61" s="4">
         <v>622</v>
       </c>
@@ -1911,15 +2119,19 @@
         <v>622</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="18" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="B62" s="4">
+        <v>13451018496</v>
+      </c>
+      <c r="C62" s="4">
+        <v>15972418648</v>
+      </c>
       <c r="D62" s="4">
         <v>622</v>
       </c>
@@ -1929,15 +2141,19 @@
         <v>622</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="B63" s="4">
+        <v>15172917739</v>
+      </c>
+      <c r="C63" s="4">
+        <v>13477951109</v>
+      </c>
       <c r="D63" s="4">
         <v>622</v>
       </c>
@@ -1947,15 +2163,19 @@
         <v>622</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="B64" s="4">
+        <v>18872790762</v>
+      </c>
+      <c r="C64" s="4">
+        <v>13738502362</v>
+      </c>
       <c r="D64" s="4">
         <v>200</v>
       </c>
@@ -1968,10 +2188,14 @@
     </row>
     <row r="65" spans="1:8" ht="18" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="B65" s="4">
+        <v>13247228388</v>
+      </c>
+      <c r="C65" s="4">
+        <v>18672245468</v>
+      </c>
       <c r="D65" s="4">
         <v>200</v>
       </c>
@@ -1984,10 +2208,14 @@
     </row>
     <row r="66" spans="1:8" ht="18" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="B66" s="4">
+        <v>15707273054</v>
+      </c>
+      <c r="C66" s="4">
+        <v>15707258111</v>
+      </c>
       <c r="D66" s="4">
         <v>200</v>
       </c>
@@ -2000,9 +2228,11 @@
     </row>
     <row r="67" spans="1:8" ht="18" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="B67" s="4">
+        <v>15971773261</v>
+      </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4">
         <v>200</v>
@@ -2016,10 +2246,14 @@
     </row>
     <row r="68" spans="1:8" ht="18" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="B68" s="4">
+        <v>13593646483</v>
+      </c>
+      <c r="C68" s="4">
+        <v>15071885888</v>
+      </c>
       <c r="D68" s="4">
         <v>200</v>
       </c>
@@ -2032,9 +2266,11 @@
     </row>
     <row r="69" spans="1:8" ht="18" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="B69" s="4">
+        <v>13806899553</v>
+      </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4">
         <v>200</v>
@@ -2048,10 +2284,14 @@
     </row>
     <row r="70" spans="1:8" ht="18" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="B70" s="4">
+        <v>15272250058</v>
+      </c>
+      <c r="C70" s="4">
+        <v>13867610356</v>
+      </c>
       <c r="D70" s="4">
         <v>200</v>
       </c>
@@ -2064,9 +2304,11 @@
     </row>
     <row r="71" spans="1:8" ht="18" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="B71" s="4">
+        <v>15027199644</v>
+      </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4">
         <v>400</v>
@@ -2080,9 +2322,11 @@
     </row>
     <row r="72" spans="1:8" ht="18" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="B72" s="4">
+        <v>15171021452</v>
+      </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4">
         <v>200</v>

--- a/管理/领航教育报名册.xlsx
+++ b/管理/领航教育报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
   <si>
     <t>姓名</t>
   </si>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2021,12 +2021,16 @@
       <c r="E46" s="4">
         <v>200</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="4">
+        <v>422</v>
+      </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4">
         <v>622</v>
       </c>
-      <c r="I46" s="4"/>
+      <c r="I46" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="47" spans="1:21" ht="18" customHeight="1">
       <c r="A47" s="4">

--- a/管理/领航教育报名册.xlsx
+++ b/管理/领航教育报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
   <si>
     <t>姓名</t>
   </si>
@@ -365,6 +365,30 @@
   </si>
   <si>
     <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +396,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +443,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -428,7 +459,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -471,6 +502,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -483,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -510,6 +578,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -814,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U79"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -925,7 +1005,9 @@
       <c r="H4" s="4">
         <v>622</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4">
+        <v>122</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="4">
@@ -975,7 +1057,9 @@
       <c r="H6" s="4">
         <v>622</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4">
+        <v>422</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
       <c r="A7" s="4">
@@ -1158,11 +1242,15 @@
       <c r="F13" s="4">
         <v>400</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4">
+        <v>22</v>
+      </c>
       <c r="H13" s="4">
         <v>622</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="I13" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="A14" s="4">
@@ -1215,7 +1303,7 @@
         <v>622</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1">
@@ -1532,7 +1620,9 @@
       <c r="H27" s="4">
         <v>622</v>
       </c>
-      <c r="I27" s="4"/>
+      <c r="I27" s="4">
+        <v>102</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1">
       <c r="A28" s="4">
@@ -1654,12 +1744,16 @@
       <c r="E32" s="4">
         <v>200</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="4">
+        <v>422</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4">
         <v>622</v>
       </c>
-      <c r="I32" s="4"/>
+      <c r="I32" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="33" spans="1:21" ht="18" customHeight="1">
       <c r="A33" s="4">
@@ -1759,12 +1853,16 @@
       <c r="E36" s="4">
         <v>200</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="4">
+        <v>422</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4">
         <v>622</v>
       </c>
-      <c r="I36" s="4"/>
+      <c r="I36" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="37" spans="1:21" ht="18" customHeight="1">
       <c r="A37" s="4">
@@ -2701,10 +2799,16 @@
       <c r="E72" s="4">
         <v>520</v>
       </c>
-      <c r="F72" s="4"/>
+      <c r="F72" s="4">
+        <v>102</v>
+      </c>
       <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
+      <c r="H72" s="4">
+        <v>622</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="73" spans="1:9" ht="18" customHeight="1">
       <c r="A73" s="4">
@@ -2722,10 +2826,16 @@
       <c r="E73" s="4">
         <v>300</v>
       </c>
-      <c r="F73" s="4"/>
+      <c r="F73" s="4">
+        <v>322</v>
+      </c>
       <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
+      <c r="H73" s="4">
+        <v>622</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="74" spans="1:9" ht="18" customHeight="1">
       <c r="A74" s="4">
@@ -2743,10 +2853,16 @@
       <c r="E74" s="4">
         <v>200</v>
       </c>
-      <c r="F74" s="4"/>
+      <c r="F74" s="4">
+        <v>422</v>
+      </c>
       <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
+      <c r="H74" s="4">
+        <v>622</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="75" spans="1:9" ht="18" customHeight="1">
       <c r="A75" s="4">
@@ -2757,11 +2873,17 @@
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="E75" s="4">
+        <v>622</v>
+      </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
+      <c r="H75" s="4">
+        <v>622</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="76" spans="1:9" ht="18" customHeight="1">
       <c r="A76" s="4">
@@ -2772,11 +2894,17 @@
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="E76" s="4">
+        <v>300</v>
+      </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
+      <c r="H76" s="4">
+        <v>622</v>
+      </c>
+      <c r="I76" s="4">
+        <v>322</v>
+      </c>
     </row>
     <row r="77" spans="1:9" ht="18" customHeight="1">
       <c r="A77" s="4">
@@ -2787,37 +2915,97 @@
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="E77" s="4">
+        <v>622</v>
+      </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
+      <c r="H77" s="4">
+        <v>622</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="78" spans="1:9" ht="18" customHeight="1">
-      <c r="A78" s="6"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="A78" s="4">
+        <v>76</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="4">
+        <v>15071831265</v>
+      </c>
+      <c r="D78" s="4">
+        <v>18006763069</v>
+      </c>
+      <c r="E78" s="4">
+        <v>622</v>
+      </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
+      <c r="H78" s="4">
+        <v>622</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="6"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="A79" s="4">
+        <v>77</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="4">
+        <v>15971704136</v>
+      </c>
+      <c r="D79" s="4">
+        <v>13032790218</v>
+      </c>
+      <c r="E79" s="4">
+        <v>200</v>
+      </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
+      <c r="H79" s="4">
+        <v>622</v>
+      </c>
+      <c r="I79" s="12">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="4">
+        <f>SUM(E3:E79)</f>
+        <v>19274</v>
+      </c>
+      <c r="F80" s="4">
+        <f>SUM(F3:F79)</f>
+        <v>26964</v>
+      </c>
+      <c r="G80" s="4">
+        <f>SUM(G3:G79)</f>
+        <v>266</v>
+      </c>
+      <c r="H80" s="4">
+        <f>SUM(H3:H79)</f>
+        <v>47894</v>
+      </c>
+      <c r="I80" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A80:D80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/管理/领航教育报名册.xlsx
+++ b/管理/领航教育报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
   <si>
     <t>姓名</t>
   </si>
@@ -573,6 +573,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -587,9 +590,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -912,17 +912,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -1052,13 +1052,15 @@
       <c r="E6" s="4">
         <v>200</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>422</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4">
         <v>622</v>
       </c>
-      <c r="I6" s="4">
-        <v>422</v>
+      <c r="I6" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
@@ -2973,24 +2975,24 @@
       <c r="H79" s="4">
         <v>622</v>
       </c>
-      <c r="I79" s="12">
+      <c r="I79" s="7">
         <v>422</v>
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="12"/>
       <c r="E80" s="4">
         <f>SUM(E3:E79)</f>
         <v>19274</v>
       </c>
       <c r="F80" s="4">
         <f>SUM(F3:F79)</f>
-        <v>26964</v>
+        <v>27386</v>
       </c>
       <c r="G80" s="4">
         <f>SUM(G3:G79)</f>

--- a/管理/领航教育报名册.xlsx
+++ b/管理/领航教育报名册.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="95">
   <si>
     <t>姓名</t>
   </si>
@@ -389,6 +389,10 @@
   </si>
   <si>
     <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交齐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +400,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,13 +442,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -551,7 +548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -572,9 +569,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -896,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -912,17 +906,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -1005,8 +999,8 @@
       <c r="H4" s="4">
         <v>622</v>
       </c>
-      <c r="I4" s="4">
-        <v>122</v>
+      <c r="I4" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
@@ -1622,8 +1616,8 @@
       <c r="H27" s="4">
         <v>622</v>
       </c>
-      <c r="I27" s="4">
-        <v>102</v>
+      <c r="I27" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1">
@@ -1673,7 +1667,7 @@
         <v>622</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
@@ -2904,8 +2898,8 @@
       <c r="H76" s="4">
         <v>622</v>
       </c>
-      <c r="I76" s="4">
-        <v>322</v>
+      <c r="I76" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="18" customHeight="1">
@@ -2975,17 +2969,17 @@
       <c r="H79" s="4">
         <v>622</v>
       </c>
-      <c r="I79" s="7">
-        <v>422</v>
+      <c r="I79" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="12"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="11"/>
       <c r="E80" s="4">
         <f>SUM(E3:E79)</f>
         <v>19274</v>
